--- a/example/input.xlsx
+++ b/example/input.xlsx
@@ -29,13 +29,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>No.</t>
+    <t>No</t>
   </si>
   <si>
-    <t>Code</t>
+    <t>Product-Code</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>Product-Name</t>
   </si>
   <si>
     <t>VG-WHITE</t>
@@ -1208,8 +1208,8 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="2"/>

--- a/example/input.xlsx
+++ b/example/input.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>No</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Product-Name</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
   <si>
     <t>VG-WHITE</t>
@@ -54,6 +57,12 @@
   </si>
   <si>
     <t>B Necklace</t>
+  </si>
+  <si>
+    <t>BN-RED</t>
+  </si>
+  <si>
+    <t>GH-BROWN</t>
   </si>
 </sst>
 </file>
@@ -1206,19 +1215,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="12.2421875" customWidth="1"/>
     <col min="3" max="3" width="11.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1228,38 +1237,78 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
+      <c r="D6">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/example/input.xlsx
+++ b/example/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22240" windowHeight="12620"/>
+    <workbookView windowWidth="26840" windowHeight="13320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>No</t>
   </si>
@@ -1215,13 +1215,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="12.2421875" customWidth="1"/>
     <col min="3" max="3" width="11.84375" customWidth="1"/>
@@ -1311,6 +1311,20 @@
         <v>300</v>
       </c>
     </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/example/input.xlsx
+++ b/example/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26840" windowHeight="13320"/>
+    <workbookView windowWidth="18100" windowHeight="13320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Product-Code</t>
+    <t>Product-Size-Color</t>
   </si>
   <si>
     <t>Product-Name</t>
@@ -41,7 +41,7 @@
     <t>Price</t>
   </si>
   <si>
-    <t>VG-WHITE</t>
+    <t>VG-XS-WHITE</t>
   </si>
   <si>
     <t>V Shirt</t>
@@ -53,16 +53,19 @@
     <t>G Handbag</t>
   </si>
   <si>
-    <t>BN-PURPLE</t>
+    <t>BN-XS-PURPLE</t>
   </si>
   <si>
     <t>B Necklace</t>
   </si>
   <si>
-    <t>BN-RED</t>
+    <t>BN-S-RED</t>
   </si>
   <si>
     <t>GH-BROWN</t>
+  </si>
+  <si>
+    <t>GH-RED</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1221,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1316,7 +1319,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
